--- a/SchedulingData/dynamic12/pso/scheduling2_17.xlsx
+++ b/SchedulingData/dynamic12/pso/scheduling2_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,121 +462,121 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>219.24</v>
+        <v>201.86</v>
       </c>
       <c r="D2" t="n">
-        <v>282.34</v>
+        <v>246.7</v>
       </c>
       <c r="E2" t="n">
-        <v>13.876</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>226.5</v>
+        <v>231.46</v>
       </c>
       <c r="D3" t="n">
-        <v>291.1</v>
+        <v>269.06</v>
       </c>
       <c r="E3" t="n">
-        <v>14.98</v>
+        <v>12.424</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>227.36</v>
+        <v>246.7</v>
       </c>
       <c r="D4" t="n">
-        <v>286.82</v>
+        <v>283.52</v>
       </c>
       <c r="E4" t="n">
-        <v>12.468</v>
+        <v>13.848</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>212.3</v>
+        <v>248.04</v>
       </c>
       <c r="D5" t="n">
-        <v>274.48</v>
+        <v>303.64</v>
       </c>
       <c r="E5" t="n">
-        <v>12.692</v>
+        <v>10.756</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>274.48</v>
+        <v>237.52</v>
       </c>
       <c r="D6" t="n">
-        <v>304.2</v>
+        <v>291.24</v>
       </c>
       <c r="E6" t="n">
-        <v>10.36</v>
+        <v>14.476</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>243.9</v>
+        <v>303.64</v>
       </c>
       <c r="D7" t="n">
-        <v>322.86</v>
+        <v>361.54</v>
       </c>
       <c r="E7" t="n">
-        <v>11.904</v>
+        <v>7.096</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -584,222 +584,222 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>209.78</v>
+        <v>214.14</v>
       </c>
       <c r="D8" t="n">
-        <v>275.16</v>
+        <v>254.72</v>
       </c>
       <c r="E8" t="n">
-        <v>16.904</v>
+        <v>13.728</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>322.86</v>
+        <v>254.72</v>
       </c>
       <c r="D9" t="n">
-        <v>378.88</v>
+        <v>302.32</v>
       </c>
       <c r="E9" t="n">
-        <v>8.432</v>
+        <v>10.608</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>286.82</v>
+        <v>283.52</v>
       </c>
       <c r="D10" t="n">
-        <v>344.42</v>
+        <v>333.04</v>
       </c>
       <c r="E10" t="n">
-        <v>8.827999999999999</v>
+        <v>11.516</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>291.1</v>
+        <v>269.06</v>
       </c>
       <c r="D11" t="n">
-        <v>328.9</v>
+        <v>316.84</v>
       </c>
       <c r="E11" t="n">
-        <v>12.82</v>
+        <v>8.776</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>275.16</v>
+        <v>291.24</v>
       </c>
       <c r="D12" t="n">
-        <v>328.88</v>
+        <v>335.26</v>
       </c>
       <c r="E12" t="n">
-        <v>13.152</v>
+        <v>11.704</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>282.34</v>
+        <v>213.68</v>
       </c>
       <c r="D13" t="n">
-        <v>328.78</v>
+        <v>250.18</v>
       </c>
       <c r="E13" t="n">
-        <v>10.852</v>
+        <v>12.172</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>328.9</v>
+        <v>335.26</v>
       </c>
       <c r="D14" t="n">
-        <v>373.32</v>
+        <v>383.7</v>
       </c>
       <c r="E14" t="n">
-        <v>10.488</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>328.88</v>
+        <v>250.18</v>
       </c>
       <c r="D15" t="n">
-        <v>411.36</v>
+        <v>313.94</v>
       </c>
       <c r="E15" t="n">
-        <v>9.504</v>
+        <v>8.896000000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>373.32</v>
+        <v>313.94</v>
       </c>
       <c r="D16" t="n">
-        <v>436.86</v>
+        <v>358.56</v>
       </c>
       <c r="E16" t="n">
-        <v>7.264</v>
+        <v>6.564</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>328.78</v>
+        <v>302.32</v>
       </c>
       <c r="D17" t="n">
-        <v>391.18</v>
+        <v>357.28</v>
       </c>
       <c r="E17" t="n">
-        <v>7.732</v>
+        <v>8.231999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>304.2</v>
+        <v>316.84</v>
       </c>
       <c r="D18" t="n">
-        <v>358.56</v>
+        <v>353.48</v>
       </c>
       <c r="E18" t="n">
-        <v>7.544</v>
+        <v>5.752</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>411.36</v>
+        <v>361.54</v>
       </c>
       <c r="D19" t="n">
-        <v>476.86</v>
+        <v>404.34</v>
       </c>
       <c r="E19" t="n">
-        <v>6.584</v>
+        <v>3.456</v>
       </c>
     </row>
     <row r="20">
@@ -808,36 +808,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>436.86</v>
+        <v>404.34</v>
       </c>
       <c r="D20" t="n">
-        <v>498.66</v>
+        <v>474.33</v>
       </c>
       <c r="E20" t="n">
-        <v>4.184</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>391.18</v>
+        <v>474.33</v>
       </c>
       <c r="D21" t="n">
-        <v>432.72</v>
+        <v>533.53</v>
       </c>
       <c r="E21" t="n">
-        <v>4.708</v>
+        <v>26.28</v>
       </c>
     </row>
     <row r="22">
@@ -846,169 +846,131 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>344.42</v>
+        <v>357.28</v>
       </c>
       <c r="D22" t="n">
-        <v>401.22</v>
+        <v>439.08</v>
       </c>
       <c r="E22" t="n">
-        <v>5.748</v>
+        <v>5.152</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>498.66</v>
+        <v>358.56</v>
       </c>
       <c r="D23" t="n">
-        <v>541.66</v>
+        <v>432.6</v>
       </c>
       <c r="E23" t="n">
-        <v>2.024</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>378.88</v>
+        <v>383.7</v>
       </c>
       <c r="D24" t="n">
-        <v>432.42</v>
+        <v>445.5</v>
       </c>
       <c r="E24" t="n">
-        <v>5.208</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>432.72</v>
+        <v>333.04</v>
       </c>
       <c r="D25" t="n">
-        <v>477.16</v>
+        <v>385.74</v>
       </c>
       <c r="E25" t="n">
-        <v>1.404</v>
+        <v>9.356</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>477.16</v>
+        <v>353.48</v>
       </c>
       <c r="D26" t="n">
-        <v>580.75</v>
+        <v>404.08</v>
       </c>
       <c r="E26" t="n">
-        <v>30</v>
+        <v>3.332</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>358.56</v>
+        <v>385.74</v>
       </c>
       <c r="D27" t="n">
-        <v>435.56</v>
+        <v>453.14</v>
       </c>
       <c r="E27" t="n">
-        <v>4.464</v>
+        <v>7.196</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>401.22</v>
+        <v>445.5</v>
       </c>
       <c r="D28" t="n">
-        <v>461.72</v>
+        <v>527.3</v>
       </c>
       <c r="E28" t="n">
-        <v>3.328</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>2</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>pond10</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>461.72</v>
-      </c>
-      <c r="D29" t="n">
-        <v>491.88</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.952</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>2</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>depot1</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>491.88</v>
-      </c>
-      <c r="D30" t="n">
-        <v>591.38</v>
-      </c>
-      <c r="E30" t="n">
-        <v>30</v>
+        <v>2.32</v>
       </c>
     </row>
   </sheetData>
